--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Fn1-Itgb3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Fn1-Itgb3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H2">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I2">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J2">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N2">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O2">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P2">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q2">
-        <v>58.2717702564689</v>
+        <v>195.993473728896</v>
       </c>
       <c r="R2">
-        <v>58.2717702564689</v>
+        <v>1763.941263560064</v>
       </c>
       <c r="S2">
-        <v>0.01105565710507379</v>
+        <v>0.02445295292620913</v>
       </c>
       <c r="T2">
-        <v>0.01105565710507379</v>
+        <v>0.02445295292620913</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H3">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I3">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J3">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N3">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O3">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P3">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q3">
-        <v>169.4781848713315</v>
+        <v>196.9116592743191</v>
       </c>
       <c r="R3">
-        <v>169.4781848713315</v>
+        <v>1772.204933468872</v>
       </c>
       <c r="S3">
-        <v>0.03215438093747876</v>
+        <v>0.02456750953614408</v>
       </c>
       <c r="T3">
-        <v>0.03215438093747876</v>
+        <v>0.02456750953614408</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H4">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I4">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J4">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.39573468663341</v>
+        <v>0.4327576666666667</v>
       </c>
       <c r="N4">
-        <v>0.39573468663341</v>
+        <v>1.298273</v>
       </c>
       <c r="O4">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="P4">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="Q4">
-        <v>7.517635525539717</v>
+        <v>9.455654905393111</v>
       </c>
       <c r="R4">
-        <v>7.517635525539717</v>
+        <v>85.100894148538</v>
       </c>
       <c r="S4">
-        <v>0.001426289269151932</v>
+        <v>0.001179726446442216</v>
       </c>
       <c r="T4">
-        <v>0.001426289269151932</v>
+        <v>0.001179726446442216</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H5">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I5">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J5">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N5">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O5">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P5">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q5">
-        <v>1165.499690534174</v>
+        <v>3453.939141408576</v>
       </c>
       <c r="R5">
-        <v>1165.499690534174</v>
+        <v>31085.45227267719</v>
       </c>
       <c r="S5">
-        <v>0.2211253387000889</v>
+        <v>0.4309276713554316</v>
       </c>
       <c r="T5">
-        <v>0.2211253387000889</v>
+        <v>0.4309276713554316</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H6">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I6">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J6">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N6">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O6">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P6">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q6">
-        <v>3389.750665724841</v>
+        <v>3470.120073018571</v>
       </c>
       <c r="R6">
-        <v>3389.750665724841</v>
+        <v>31231.08065716713</v>
       </c>
       <c r="S6">
-        <v>0.6431230914559208</v>
+        <v>0.4329464710196934</v>
       </c>
       <c r="T6">
-        <v>0.6431230914559208</v>
+        <v>0.4329464710196934</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H7">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I7">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J7">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.39573468663341</v>
+        <v>0.4327576666666667</v>
       </c>
       <c r="N7">
-        <v>0.39573468663341</v>
+        <v>1.298273</v>
       </c>
       <c r="O7">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="P7">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="Q7">
-        <v>150.3610039647386</v>
+        <v>166.6344086056892</v>
       </c>
       <c r="R7">
-        <v>150.3610039647386</v>
+        <v>1499.709677451203</v>
       </c>
       <c r="S7">
-        <v>0.02852735886506297</v>
+        <v>0.02078999505441629</v>
       </c>
       <c r="T7">
-        <v>0.02852735886506297</v>
+        <v>0.02078999505441629</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>26.63661054454</v>
+        <v>28.350479</v>
       </c>
       <c r="H8">
-        <v>26.63661054454</v>
+        <v>85.05143699999999</v>
       </c>
       <c r="I8">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="J8">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N8">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O8">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P8">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q8">
-        <v>81.70714298303514</v>
+        <v>254.305157452992</v>
       </c>
       <c r="R8">
-        <v>81.70714298303514</v>
+        <v>2288.746417076928</v>
       </c>
       <c r="S8">
-        <v>0.01550195149177559</v>
+        <v>0.03172815872783522</v>
       </c>
       <c r="T8">
-        <v>0.01550195149177559</v>
+        <v>0.03172815872783522</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>26.63661054454</v>
+        <v>28.350479</v>
       </c>
       <c r="H9">
-        <v>26.63661054454</v>
+        <v>85.05143699999999</v>
       </c>
       <c r="I9">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="J9">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N9">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O9">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P9">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q9">
-        <v>237.6378514474578</v>
+        <v>255.4965201818493</v>
       </c>
       <c r="R9">
-        <v>237.6378514474578</v>
+        <v>2299.468681636644</v>
       </c>
       <c r="S9">
-        <v>0.0450860268913471</v>
+        <v>0.03187679804817853</v>
       </c>
       <c r="T9">
-        <v>0.0450860268913471</v>
+        <v>0.03187679804817853</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.63661054454</v>
+        <v>28.350479</v>
       </c>
       <c r="H10">
-        <v>26.63661054454</v>
+        <v>85.05143699999999</v>
       </c>
       <c r="I10">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="J10">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.39573468663341</v>
+        <v>0.4327576666666667</v>
       </c>
       <c r="N10">
-        <v>0.39573468663341</v>
+        <v>1.298273</v>
       </c>
       <c r="O10">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="P10">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="Q10">
-        <v>10.54103072681972</v>
+        <v>12.26888714092233</v>
       </c>
       <c r="R10">
-        <v>10.54103072681972</v>
+        <v>110.419984268301</v>
       </c>
       <c r="S10">
-        <v>0.001999905284099867</v>
+        <v>0.00153071688564962</v>
       </c>
       <c r="T10">
-        <v>0.001999905284099867</v>
+        <v>0.00153071688564962</v>
       </c>
     </row>
   </sheetData>
